--- a/biology/Botanique/Hevea_guianensis/Hevea_guianensis.xlsx
+++ b/biology/Botanique/Hevea_guianensis/Hevea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hevea guianensis Aubl., l’hévéa de Guyane, est une espèce de plantes à fleurs dicotylédones de la famille des Euphorbiaceae. C'est un arbre originaire d'Amérique du Sud.
 Il ne faut pas le confondre avec Evea guianensis Aubl. (Rubiaceae).
-Hevea guianensis est connu en Guyane sous les noms de Caoutchouc, Heve, Seringa, Docali, Efea[4], Hévéa[5], Afasi boiti (Aluku)[6], Hevea (Saramaka), Sabana-dokali, Eféa (Paramaka)[7].
+Hevea guianensis est connu en Guyane sous les noms de Caoutchouc, Heve, Seringa, Docali, Efea, Hévéa, Afasi boiti (Aluku), Hevea (Saramaka), Sabana-dokali, Eféa (Paramaka).
 Ailleurs, on l'appelle :
-au Suriname Seue joeballi, Seve joeballi, Sewejoeballi, Rappa rappa (Arawak), Mapalapa (Karib)[8], Siringa (Garipon), Efea, Sabana-dokali  (Paramaka), Hevea  (Sranan tongo), Eh-wa (Tiriyó)[9],
-au Venezuela Caucho fino, Caucho legítimo, Conuri, Seringa[10],
-au Pérou Shiringa debil, Jebe debil[11]
-La variété H. guianensis var. guianensis est appelée Caucho fino, Goma, Seringa au Venezuela[10], et la variété H. guianensis var. lutea Caucho, Caucho yapi (Baniba (en)), Goma, Goma concha blanca au Venezuela[10], et Jebe debil, Jebe debil de altura, Jebe a-mapa, Shiringa debil, Shiringa de altura, Shiringa de cerro, Shiringa a-marillo au Pérou[11]
-Pour Hevea spp., on cite les noms génériques Hevea, Mapalapa, Seringa, Seringueira au Brésil, Hatti au Guyana, Hevea wood en Malaisie, Jeve, Shirenga au Pérou, Rubber tree en Thaïlande, Arbol se caucho au Vénézuela, Para rubber tree au Royaume-Uni, Rubber Wood aux États-Unis[12].
+au Suriname Seue joeballi, Seve joeballi, Sewejoeballi, Rappa rappa (Arawak), Mapalapa (Karib), Siringa (Garipon), Efea, Sabana-dokali  (Paramaka), Hevea  (Sranan tongo), Eh-wa (Tiriyó),
+au Venezuela Caucho fino, Caucho legítimo, Conuri, Seringa,
+au Pérou Shiringa debil, Jebe debil
+La variété H. guianensis var. guianensis est appelée Caucho fino, Goma, Seringa au Venezuela, et la variété H. guianensis var. lutea Caucho, Caucho yapi (Baniba (en)), Goma, Goma concha blanca au Venezuela, et Jebe debil, Jebe debil de altura, Jebe a-mapa, Shiringa debil, Shiringa de altura, Shiringa de cerro, Shiringa a-marillo au Pérou
+Pour Hevea spp., on cite les noms génériques Hevea, Mapalapa, Seringa, Seringueira au Brésil, Hatti au Guyana, Hevea wood en Malaisie, Jeve, Shirenga au Pérou, Rubber tree en Thaïlande, Arbol se caucho au Vénézuela, Para rubber tree au Royaume-Uni, Rubber Wood aux États-Unis.
 </t>
         </is>
       </c>
@@ -519,13 +531,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hevea guianensis est un arbre de la canopée, haut de 20(–25) m.
 Son tronc est cylindrique, dépourvu de contreforts, parfois élargi à la base.
 L'écorce est brune, écailleuse, l'écorce interne orange pâle.
 Il produit un latex de couleur crème ou jaune crème.
-Son bois est altérable, léger (densité : 0,46 à 0,65), à grain moyen, de couleur blanchâtre à brun clair[4].
+Son bois est altérable, léger (densité : 0,46 à 0,65), à grain moyen, de couleur blanchâtre à brun clair.
 Les feuilles sont alternes, composées palmées trifoliolées, ± persistantes, conservant quelques vieilles feuilles avec la nouvelle poussée de feuilles.
 Les folioles sont longues de 5 à 18(26) cm pour 2,5-4(9) cm de large, de forme oblancéolée, oblongue ou oblongue-obovale, membraneuses, subcoriacées à chartacées, arrondies et brièvement obtuses-apiculées, aiguës ou rarement obtuses-acuminées à l'apex, aiguës à la base, à marges entières, de couleur verdâtre au-dessus, glaucescent pâle en dessous, parfois violescent, glabres ou à pubescence rougeâtre ou brune clairsemée le long des nervures inférieures.
 La nervation est pennée, avec 12-17 paires de nervures secondaires.
@@ -541,14 +555,49 @@
 Les staminodes sont présents ou réduits.
 L'ovaire est pubérulent à densément pubescent, avec des stigmates sessiles.
 Le fruit est une capsule verdâtre, veinée, mesurant (2)2,5-4 x 2,7-4 cm, à 3 lobes ou ronde en section transversale, à valves épaisses et ligneuses, à déhiscence explosive.
-Il contient 3(-6) graines de forme subglobuleuse, ovoïde à oblongue-ellipsoïde (ou quelque peu déprimées), lisses, de couleur brun pâle ponctuées de marbrures roussâtres plus foncées, mesurant 1,3-2 cm (jusqu'à 2,3 × 2 × 1,7 cm)[8],[10],[13],[7],[14].
-Liste des sous-espèces et variétés
-Plusieurs taxons infra-spécifiques sont reconnus au sein d’Hevea guianensis[15],[16].
-Selon Catalogue of Life                                   (20 juillet 2015)[3] et The Plant List            (20 juillet 2015)[1] :
-Hevea guianensis var. guianensis est un arbres haut de 10 à 25 m. Ses fleurs portent 5 anthères, longues d'environ 1 mm, sur un verticille[10].
-Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. est un arbres haut de 15–30 m. Ses fleurs portent 5–7, anthères, longues d'environ 0,5 mm, sur 2 verticilles irréguliers[10]. Son latex serait de couleur plutôt jaune[17].
+Il contient 3(-6) graines de forme subglobuleuse, ovoïde à oblongue-ellipsoïde (ou quelque peu déprimées), lisses, de couleur brun pâle ponctuées de marbrures roussâtres plus foncées, mesurant 1,3-2 cm (jusqu'à 2,3 × 2 × 1,7 cm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs taxons infra-spécifiques sont reconnus au sein d’Hevea guianensis,.
+Selon Catalogue of Life                                   (20 juillet 2015) et The Plant List            (20 juillet 2015) :
+Hevea guianensis var. guianensis est un arbres haut de 10 à 25 m. Ses fleurs portent 5 anthères, longues d'environ 1 mm, sur un verticille.
+Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. est un arbres haut de 15–30 m. Ses fleurs portent 5–7, anthères, longues d'environ 0,5 mm, sur 2 verticilles irréguliers. Son latex serait de couleur plutôt jaune.
 Hevea guianensis var. marginata (Ducke) Ducke
-Selon Tropicos                                           (20 juillet 2015)[18] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 juillet 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Hevea guianensis subsp. marginata (Müll. Arg.) Ducke
 sous-espèce Hevea guianensis subsp. occidentalis Ducke
 variété Hevea guianensis var. collina (Huber) Ducke
@@ -559,41 +608,9 @@
 variété Hevea guianensis var. occidentalis (Ducke) Ducke
 variété Hevea guianensis var. rupicola R.E. Schult.
 variété Hevea guianensis var. typica Ducke
-Hevea guianensis var. lutea pourrait s'hybrider avec Hevea benthamiana, Hevea pauciflora et Hevea brasiliensis au Pérou[11].
-Hevea guianensis pourrait être une des espèces les plus « primitives » du genre[19],[17].
+Hevea guianensis var. lutea pourrait s'hybrider avec Hevea benthamiana, Hevea pauciflora et Hevea brasiliensis au Pérou.
+Hevea guianensis pourrait être une des espèces les plus « primitives » du genre,.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hevea_guianensis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hevea_guianensis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hevea guianensis est l'espèce la plus répandue du genre Hevea : de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie[10].
-Hevea guianensis var. guianensis est présent au Venezuela (Bolívar, Amazonas)[10]
-Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. est présent en Colombie, au Venezuela (Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, et au Brésil[10]</t>
         </is>
       </c>
     </row>
@@ -618,17 +635,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Guyane, on rapporte que Hevea guianensis est commun, dans les forêts marécageuses, le long des cours d'eau forestiers, dans les forêts de savane et sur les pentes boisées[7].
-En Guyane, il serait dispersé dans les forêts de terre ferme (non inondées), fleurit en septembre, octobre, novembre, et frutifie en mars-mai[13].
-On rencontre Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. au Venezuela dans les forêts sempervirentes de plaine à submontagnardes, autour de 100–800 m d'altitude[10].
-La germination des graines est affectée par la qualité de la lumière qu'elles reçoivent[20].
-92 champignons endophytes ont été identifiés dans ses feuilles, ses tiges (très abondants dans le cortex de la tige) et ses racines en Amazonie brésilienne : on trouve représentés les genres Colletotrichum, Diaporthe, Penicillium, Lasiodiplodia (en), Purpureocillium (en), Phyllosticta (en), Daldinia, Pseudofusicoccum (sv), Trichoderma, Fusarium, et Trichoderma[21] (Trichoderma amazonicum, espèce décrite en 2011[22]).
-</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hevea guianensis est l'espèce la plus répandue du genre Hevea : de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie.
+Hevea guianensis var. guianensis est présent au Venezuela (Bolívar, Amazonas)
+Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. est présent en Colombie, au Venezuela (Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, et au Brésil</t>
         </is>
       </c>
     </row>
@@ -653,31 +669,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'usage du latex d’Hevea spp. (Hevea guianensis) pour la fabrication de Caoutchouc a été rapporté pour la première fois en occident par C.-M. de la Condamine à la suite de son expédition sud-américaine[23], et par M. Fresneau, Ingénieur du roi que ce dernier a rencontré en 1744 à Cayenne (Guyane)[24],[25] :
-« Cahoutchou, résine élastiqueLa réſine appelée Cahuchu (Prononcez Cahoutchou. En 1747 on a trouvé l'arbre qui produit cette réſine dans les bois de Cayenne, oú juſqu'alors il avoit été inconnu.) dans les pays de la Province de Quito, voiſins de la Mer, eſt auſſi fort commune ſur les bords du Maragnon, &amp; ſert aux mêmes uſages. Quand elle eſt fraiche, on lui donne avec des moules la forme qu'on veut; elle eſt impénétrable à la pluie; mais ce qui la rend plus remarquable, c'eſt ſa grande élaſticité. On en fait des bouteilles qui ne ſont pas fragiles, des bottes, des boules creuſes qui s'applatiſſent quand on les preſſe, &amp; qui dès qu'elles ne ſont plus gênées, reprennent leur premiere figure. Les Portugais du Para ont appris des Omaguas à faire avec la même matiere des pompes ou ſeringues qui n'ont pas beſoin de piſton : elles ont la forme de poires creuſes, percées d'un petit trou à leur extrémité où ils adaptent une canule. On les remplit d'eau, &amp; en les preſſant, lorſqu'elles ſont pleines, elles font l'effet d'une ſeringue ordinaire. Ce meuble eſt fort en uſage chez les Omaguas. Quand ils s'aſſemble entr'eux pour quelque fête, le maitre de la maiſon ne manque pas d'en préſenter une par politeſſe à chacun des conviés, &amp; ſon uſage précede toujours parmi eux les repas de cérémonie. »
-— Charles Marie de La Condamine, Juillet 1743[26].
-Le Caoutchouc d’Hevea guianensis est analogue à celui de Hevea brasiliensis[27], mais cependant réputé de moins bonne qualité[11].
-Cet arbre est très exploité en Amazonie pour l'extraction du latex mais n'est pas cultivé[21], bien qu'il ait fait l'objet de plantations au début du XXe (abandonnées par la suite) à Montsinéry (Guyane)[28] et dans la forêt nationale du Tapajós (Brésil)
-[29],
-[30],
-[31],
-[32].
-Le rôle des plantations d’Hevea guianensis dans la séquestration du carbone a été envisagé[31].
-Hevea guianensis est mentionné aussi parmi les bois utiles de la Guyane[5]. Son bois (densité : 0,7[5]) a été édudié[33]. Il peut être employé pour divers usages de menuiserie (ameublement, lambris, moulure, parquet, placage tranché, escaliers, charpente légère), pour la pâte à papier, les emballages, les panneaux de fibre ou de particules, le contreplaqué, ou le lamellé-collé[12].
-Les graines d’Hevea guianensis seraient comestibles et consommées par les amérindiens d'après Aublet[34]. Le récit fait par Aublet décrivant la consommation de graines crues[35] est surprenant, car les graines d’Hevea sont connues pour être hautement toxiques pour l'homme sans une cuisson longue qui élimine les toxines cyanogènes[17].
-Selon Richard Spruce qui passa 7 ans dans le bassin amazonien (XIXe), les graines d’Hevea sont un excellent appât pour les poissons.
-Les aras les mangent avidement, mais elles sont vénéneuses à l'état frais pour l'homme et les mammifères.
-Les Indiens du río Uaupés les font bouillir 24 heures, les filtrent, et la masse en résultant qui a la consistance du riz longtemps bouilli, est consommée et serait très savoureuse avec du poisson[36].
-On rapporte des usages alimentaires plus ou moins similaires chez les Makunas du cours inférieur du río Apaporís, les Taiwano (es) du río Kananari et les Kubeo (en) du Vaupés (Colombie).
-Les Kuripako (en) des sources de la Guainía (Colombie) font de la purée à partir des graines d’Hevea guianensis.
-Les Yukunas et les Tanimukas du río Miriti Paraná (Colombie) fabriquent des "gâteaux" à partir des graines d’Hevea guianensis var. lutea à l'occasion de fêtes[17].
-Ces graines sont aussi utilisées comme perle pour la confection de colliers en bijouterie végétale[37].
-Le latex d’Hevea guianensis[38],[39] est appliqué sur l'orifice pour tuer les larves d’Oestridae parasites (ex : vers macaque), chez les Tirio du Suriname[9], et les Waorani d'Équateur[40]. Il serait aussi bu comme tonique[41].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Guyane, on rapporte que Hevea guianensis est commun, dans les forêts marécageuses, le long des cours d'eau forestiers, dans les forêts de savane et sur les pentes boisées.
+En Guyane, il serait dispersé dans les forêts de terre ferme (non inondées), fleurit en septembre, octobre, novembre, et frutifie en mars-mai.
+On rencontre Hevea guianensis var. lutea (Spruce ex Benth.) Ducke &amp; R.E.Schult. au Venezuela dans les forêts sempervirentes de plaine à submontagnardes, autour de 100–800 m d'altitude.
+La germination des graines est affectée par la qualité de la lumière qu'elles reçoivent.
+92 champignons endophytes ont été identifiés dans ses feuilles, ses tiges (très abondants dans le cortex de la tige) et ses racines en Amazonie brésilienne : on trouve représentés les genres Colletotrichum, Diaporthe, Penicillium, Lasiodiplodia (en), Purpureocillium (en), Phyllosticta (en), Daldinia, Pseudofusicoccum (sv), Trichoderma, Fusarium, et Trichoderma (Trichoderma amazonicum, espèce décrite en 2011).
 </t>
         </is>
       </c>
@@ -703,10 +706,64 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usage du latex d’Hevea spp. (Hevea guianensis) pour la fabrication de Caoutchouc a été rapporté pour la première fois en occident par C.-M. de la Condamine à la suite de son expédition sud-américaine, et par M. Fresneau, Ingénieur du roi que ce dernier a rencontré en 1744 à Cayenne (Guyane), :
+« Cahoutchou, résine élastiqueLa réſine appelée Cahuchu (Prononcez Cahoutchou. En 1747 on a trouvé l'arbre qui produit cette réſine dans les bois de Cayenne, oú juſqu'alors il avoit été inconnu.) dans les pays de la Province de Quito, voiſins de la Mer, eſt auſſi fort commune ſur les bords du Maragnon, &amp; ſert aux mêmes uſages. Quand elle eſt fraiche, on lui donne avec des moules la forme qu'on veut; elle eſt impénétrable à la pluie; mais ce qui la rend plus remarquable, c'eſt ſa grande élaſticité. On en fait des bouteilles qui ne ſont pas fragiles, des bottes, des boules creuſes qui s'applatiſſent quand on les preſſe, &amp; qui dès qu'elles ne ſont plus gênées, reprennent leur premiere figure. Les Portugais du Para ont appris des Omaguas à faire avec la même matiere des pompes ou ſeringues qui n'ont pas beſoin de piſton : elles ont la forme de poires creuſes, percées d'un petit trou à leur extrémité où ils adaptent une canule. On les remplit d'eau, &amp; en les preſſant, lorſqu'elles ſont pleines, elles font l'effet d'une ſeringue ordinaire. Ce meuble eſt fort en uſage chez les Omaguas. Quand ils s'aſſemble entr'eux pour quelque fête, le maitre de la maiſon ne manque pas d'en préſenter une par politeſſe à chacun des conviés, &amp; ſon uſage précede toujours parmi eux les repas de cérémonie. »
+— Charles Marie de La Condamine, Juillet 1743.
+Le Caoutchouc d’Hevea guianensis est analogue à celui de Hevea brasiliensis, mais cependant réputé de moins bonne qualité.
+Cet arbre est très exploité en Amazonie pour l'extraction du latex mais n'est pas cultivé, bien qu'il ait fait l'objet de plantations au début du XXe (abandonnées par la suite) à Montsinéry (Guyane) et dans la forêt nationale du Tapajós (Brésil)
+,
+,
+,
+.
+Le rôle des plantations d’Hevea guianensis dans la séquestration du carbone a été envisagé.
+Hevea guianensis est mentionné aussi parmi les bois utiles de la Guyane. Son bois (densité : 0,7) a été édudié. Il peut être employé pour divers usages de menuiserie (ameublement, lambris, moulure, parquet, placage tranché, escaliers, charpente légère), pour la pâte à papier, les emballages, les panneaux de fibre ou de particules, le contreplaqué, ou le lamellé-collé.
+Les graines d’Hevea guianensis seraient comestibles et consommées par les amérindiens d'après Aublet. Le récit fait par Aublet décrivant la consommation de graines crues est surprenant, car les graines d’Hevea sont connues pour être hautement toxiques pour l'homme sans une cuisson longue qui élimine les toxines cyanogènes.
+Selon Richard Spruce qui passa 7 ans dans le bassin amazonien (XIXe), les graines d’Hevea sont un excellent appât pour les poissons.
+Les aras les mangent avidement, mais elles sont vénéneuses à l'état frais pour l'homme et les mammifères.
+Les Indiens du río Uaupés les font bouillir 24 heures, les filtrent, et la masse en résultant qui a la consistance du riz longtemps bouilli, est consommée et serait très savoureuse avec du poisson.
+On rapporte des usages alimentaires plus ou moins similaires chez les Makunas du cours inférieur du río Apaporís, les Taiwano (es) du río Kananari et les Kubeo (en) du Vaupés (Colombie).
+Les Kuripako (en) des sources de la Guainía (Colombie) font de la purée à partir des graines d’Hevea guianensis.
+Les Yukunas et les Tanimukas du río Miriti Paraná (Colombie) fabriquent des "gâteaux" à partir des graines d’Hevea guianensis var. lutea à l'occasion de fêtes.
+Ces graines sont aussi utilisées comme perle pour la confection de colliers en bijouterie végétale.
+Le latex d’Hevea guianensis, est appliqué sur l'orifice pour tuer les larves d’Oestridae parasites (ex : vers macaque), chez les Tirio du Suriname, et les Waorani d'Équateur. Il serait aussi bu comme tonique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1751 M. de la Condamine publie pour la première fois une description d’Hevea guianensis d'après les notes de M. Fresneau :
 « DESCRIPTION de l'arbre Seringue, (ainſi nommé par les Portugais du Parà; Hhévé par les habitans de la province d’Eſmeraldas, au nord-oueſt de Quito; &amp; Caoutchouc chez les  Maïnas).
@@ -717,9 +774,43 @@
 Quant à la manière de tirer &amp; d'employer le ſuc de l'arbre Caoutchouc, ainſi que celui des autres arbres dont j'ai parlé dans ce Mémoire, voici le réſultat de mes expériences.
 On commence par laver le pied de l'arbre, enſuite on fait avec une ſerpe des inciſions en long, mais un peu de biais, qui doivent pénétrer toute l'épaiſſeur de l'écorce, ayant attention de les faire les unes ſur les autres [Figure 15.], en ſorte que ce qui ſort de l'inciſion d'en haut tombe dans celle qui eſt au deſſous, &amp; ainſi de ſuite juſqu'à la dernière, au bas de laquelle on met une feuille de baliſier ou autre ſemblable que l'on fait tenir avec de la terre glaiſe pour conduire le ſuc dans un vaſe qui eſt placé au pied de l'arbre.
 Pour employer les ſucs laiteux des divers arbres dont j'ai fait mention, &amp; qui ſont tous réſineux, on fait un moule de terre glaiſe, ſelon ce qu'on a deſſein de former, &amp; pour le tenir plus commôdément, on enfonce un morceau de bois dans l'endroit qui ne doit point être enduit de ſuc laiteux : c'eſt ainſi qu'on conſerve dans ces ouvrages une ouverture par laquelle on fait ſortir enſuite la terre glaiſe en y introduiſant de l'eau pour la délayer. Un moule quelconque étant formé, poli &amp; adouci avec de l'eau, &amp; préparé comme il a été dit, on l'enduit entièrement de ſuc laiteux avec les doigts, après quoi on expoſe cet enduit ſur une fumée épaiſſe, où l'ardeur du feu ſe faſſe peu ſentir, en tournant ſans ceſſe pour que le fuc ſe répande également ſur le moule, &amp; prenant bien garde que la flamme ne l'atteigne; ce qui feroit bouillir le ſuc laiteux, ou il ſe formeroit de petits trous. Dès qu'on voit une couleur jaune, &amp; que le doigt ne s'attache plus à ce premier enduit, on met une ſeconde couche que l'on traite de même, &amp; ainſi des autres, juſqu'à ce qu'on juge qu'il y ait aſſez d'épaiſſeur, &amp; alors on tient la matière plus long-temps ſur le feu, afin d'en faire évaporer toute l'humidité, &amp; qu'il ne reſte plus que la réſine élaſtique qui n'eſt, comme je le penſe, qu'une eſpèce d'huile réſineuſe, condenſée &amp; dépouillée de ſa partie ſéreuſe, qui s'eſt évaporée peu à peu à la chaleur de la fumée épaiſſe ſur laquelle cette huile a été expoſée pendant l'opération ; enfin les ouvrages ſeront d'autant plus ſolides; qu'on y aura employé plus de couches. Quand l'ouvrage eſt fraîchement fait, avant même de le deſſécher parfaitement ; 0n peut faire tel deſſein que l'on ſouhaite avec une pointe de fer ou de bois dur: j'ai auſſi imité des coutures de bottes avec un morceau de bois denté [Figure 16.] à diſtances égales, avec lequel, en l'appliquant à plat, je faiſois refluer la matière tout le long de ſa couture feinte, toûjours du même côté, ce qui formoit une trace en zigzag; [Figure 17.] enſuite j'appliquois l'outil de l'autre côté en ſens contraire, en faiſant ſemblablement &amp; à pareille diſtance refluer la matière, obſervant de placer les vuides de l'outil vis-à-vis le plein de ce qui étoit déjà formé. Par ces deux opérations, j'ai imité une couture où l'alêne ni ſe ligneul n'ont point eu de part [Figure 18.]. J'ai fait auſſi de certains agrémens avec le canon d'une clef, dont je me ſuis ſervi à peu près comme d'un emporte-pièce: j'ai encore percé un morceau de bois de ſix lignes de diamètre, &amp; environ deux lignes d'épaiſſeur, comme on le voit au profil [Figure 19.], dont les bords étoient moins épais &amp; dentelés vers le milieu, j'ai fait de petits trous en rond &amp; un au centre; en appliquant cet outil ſur la matière réſineuſe dont j'ai parlé, il formoit une figure autour de laquelle on peut faire des rayons avec la pointe ci-deſſus [figure 20.]: de même on imaginera d'autres agrémens tels qu'une roulette de pâtiſſerie, &amp;c. qu'on pourra mettre en pratique, &amp; poncer tels deſſeins qu'on jugera à propos. »
-— Charles Marie de La Condamine, Mémoire de l'Académie Royale des Sciences, 1751[24].
-Protologue
-En 1775, le botaniste Aublet propose le protologue suivant[35] :
+— Charles Marie de La Condamine, Mémoire de l'Académie Royale des Sciences, 1751.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hevea_guianensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protologue</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant :
 « HEVEA Guianenſis. (Tabula 335.)
 Arbor trunco ſexaginta-pedali, ad ſummitatem ramoſo ; ramis longis, nudis, latè &amp; undique ſparſis; ramulis folioſis, &amp; fructiferis. Folia alterria, densè poſita, ternata ; foliolis ovatis, acutis, ſupernè glabris, integerrimis, infernè cinereis, ſubſeſſilibus, ad apicem longi petioli adnexis. Flores non obſervavi. Fructus ſpicati, terminates. Pericarpium ; capſula glabra, oblonga, trigona, apice acuto, triſulcata, trilocularis, Singulis loculis bivalvibus, valvulis craſſis, lignoſis, extrorſum élaſticè dehiſcentibus. Semina duo, tria, quandoque unum, ovata, teſtaâ è cinereo &amp; ferrugineo variegatâ, tenui, fragili, tecta, introrsùm angulo valvularum affixa. Nucleus dulcis &amp; edulis.
 E cortice incifo manat ſuccus lacteus, partim aquoſus, partim reſinoſus, qui inſpiſſatus, gummi élaſticum dicitur, &amp; ad varios uſus uſurpatur.
